--- a/testData/ExecuteTask/Notification/ET_NT_OOFS_TimeBeforeHours_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ET_NT_OOFS_TimeBeforeHours_Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="89">
   <si>
     <t>ModuleName</t>
   </si>
@@ -249,15 +249,6 @@
     <t>ET164</t>
   </si>
   <si>
-    <t>02:35:55 AM</t>
-  </si>
-  <si>
-    <t>11-05-2024</t>
-  </si>
-  <si>
-    <t>08-05-2024 11:02:20 AM</t>
-  </si>
-  <si>
     <t>TimeHour</t>
   </si>
   <si>
@@ -270,56 +261,40 @@
     <t>00</t>
   </si>
   <si>
-    <t xml:space="preserve"> tskNT_ExecuteTask_TimeBeforeHours</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>08-05-2024</t>
-  </si>
-  <si>
-    <t>05:00:00 PM</t>
-  </si>
-  <si>
-    <t>08-05-2024 04:23:45 PM</t>
-  </si>
-  <si>
-    <t>ET232</t>
-  </si>
-  <si>
-    <t>08-05-2024 04:35:12 PM</t>
-  </si>
-  <si>
     <t>08:00:00 PM</t>
   </si>
   <si>
-    <t>ET233</t>
-  </si>
-  <si>
-    <t>08-05-2024 04:41:25 PM</t>
-  </si>
-  <si>
     <t>09:00:00 PM</t>
   </si>
   <si>
     <t>10:00:00 PM</t>
   </si>
   <si>
-    <t>08-05-2024 05:06:02 PM</t>
-  </si>
-  <si>
-    <t>ET237</t>
-  </si>
-  <si>
-    <t>08-05-2024 05:12:09 PM</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>18-07-2024</t>
+  </si>
+  <si>
+    <t>21-07-2024 08:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET2664</t>
+  </si>
+  <si>
+    <t>21-07-2024 09:00:00 PM</t>
+  </si>
+  <si>
+    <t>21-07-2024 10:00:00 PM</t>
+  </si>
+  <si>
+    <t>ET_TimeBeforeHours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -672,48 +647,48 @@
   <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="12.453125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="23.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="10.26953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="11.36328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.54296875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="18.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.453125"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.0"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="15.453125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="6.7265625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="11.0"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="21.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="11.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="10.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="12.90625"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="22.0"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="7.36328125"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.6328125"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="7.453125"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="17.26953125"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="18.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="14.90625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="30.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="11.90625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="18.36328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="18.26953125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="11.6328125"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="11.81640625"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="19.26953125"/>
-    <col min="37" max="16384" style="1" width="9.1796875"/>
+    <col min="1" max="1" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -817,13 +792,13 @@
         <v>52</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.35">
@@ -857,8 +832,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s" s="1">
-        <v>84</v>
+      <c r="K2" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -866,11 +841,11 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="1">
-        <v>94</v>
-      </c>
-      <c r="O2" t="s" s="1">
-        <v>89</v>
+      <c r="N2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -906,7 +881,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AD2" s="1" t="s">
         <v>24</v>
@@ -917,20 +892,20 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s" s="1">
-        <v>95</v>
+      <c r="AG2" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="AH2" s="7">
         <v>8</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK2" t="s" s="1">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -947,29 +922,29 @@
   <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" customWidth="true" width="21.453125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="12.26953125"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.453125" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1073,13 +1048,13 @@
         <v>52</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -1113,8 +1088,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>84</v>
+      <c r="K2" t="s">
+        <v>83</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1122,11 +1097,11 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>92</v>
+      <c r="N2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O2" t="s">
+        <v>80</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -1162,7 +1137,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1175,17 +1150,17 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s" s="0">
+      <c r="AG2" t="s">
         <v>73</v>
       </c>
       <c r="AH2" s="7">
         <v>9</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1201,20 +1176,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -1318,13 +1293,13 @@
         <v>52</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
@@ -1358,8 +1333,8 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s" s="0">
-        <v>84</v>
+      <c r="K2" t="s">
+        <v>83</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -1367,11 +1342,11 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>93</v>
+      <c r="N2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" t="s">
+        <v>81</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>34</v>
@@ -1407,7 +1382,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1420,20 +1395,20 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s" s="0">
+      <c r="AG2" t="s">
         <v>74</v>
       </c>
       <c r="AH2" s="7">
         <v>10</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AJ2" s="7">
         <v>0</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1449,48 +1424,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.1796875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.26953125"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.36328125"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.54296875"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="18.36328125"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="14.81640625"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="15.36328125"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="8.81640625"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.08984375"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="6.7265625"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="21.08984375"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.08984375"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.453125"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="12.7265625"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="8.26953125"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="28.81640625"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="9.6328125"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="7.453125"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="17.26953125"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="18.54296875"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.90625"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="30.1796875"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="8.26953125"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.90625"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="18.36328125"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.81640625"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="18.26953125"/>
-    <col min="33" max="33" bestFit="true" customWidth="true" width="11.1796875"/>
-    <col min="34" max="34" bestFit="true" customWidth="true" width="11.6328125"/>
-    <col min="35" max="35" bestFit="true" customWidth="true" width="11.81640625"/>
-    <col min="36" max="36" bestFit="true" customWidth="true" width="19.26953125"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1594,13 +1569,13 @@
         <v>52</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI1" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AJ1" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
@@ -1634,7 +1609,7 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>71</v>
       </c>
       <c r="L2" s="1">
@@ -1643,10 +1618,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s" s="0">
+      <c r="N2" t="s">
         <v>72</v>
       </c>
-      <c r="O2" t="s" s="0">
+      <c r="O2" t="s">
         <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1683,7 +1658,7 @@
         <v>43</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
@@ -1696,17 +1671,17 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s" s="0">
+      <c r="AG2" t="s">
         <v>74</v>
       </c>
       <c r="AH2" s="7">
         <v>5</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/testData/ExecuteTask/Notification/ET_NT_OOFS_TimeBeforeHours_Test.xlsx
+++ b/testData/ExecuteTask/Notification/ET_NT_OOFS_TimeBeforeHours_Test.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="90">
   <si>
     <t>ModuleName</t>
   </si>
@@ -289,12 +289,16 @@
   </si>
   <si>
     <t>ET_TimeBeforeHours</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -652,43 +656,43 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="12.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="23.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="10.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="11.36328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="13.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="18.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="11.453125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="10.0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="15.453125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="8.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="10.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="6.7265625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="21.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="11.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="10.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="12.90625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="22.0"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="7.36328125"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="9.6328125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="7.453125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="17.26953125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="18.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="14.90625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="30.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="8.26953125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="11.90625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="18.36328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="10.81640625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="18.26953125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="11.1796875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="11.6328125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="11.81640625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="19.26953125"/>
+    <col min="37" max="16384" style="1" width="9.1796875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -904,8 +908,8 @@
       <c r="AJ2" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="AK2" s="1" t="s">
-        <v>82</v>
+      <c r="AK2" t="s" s="1">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -927,24 +931,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.453125" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" customWidth="true" width="21.453125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.54296875"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.7265625"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.453125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.81640625"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="20.0"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="16.26953125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="19.81640625"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="12.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1088,7 +1092,7 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>83</v>
       </c>
       <c r="L2" s="1">
@@ -1097,10 +1101,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>80</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1150,7 +1154,7 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>73</v>
       </c>
       <c r="AH2" s="7">
@@ -1182,14 +1186,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.7265625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="25.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.7265625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.26953125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="33.54296875"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="11.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.35">
@@ -1333,7 +1337,7 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>83</v>
       </c>
       <c r="L2" s="1">
@@ -1342,10 +1346,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>81</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1395,7 +1399,7 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>74</v>
       </c>
       <c r="AH2" s="7">
@@ -1430,42 +1434,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.453125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.1796875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.26953125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.36328125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.54296875"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.81640625"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.0"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.36328125"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="8.81640625"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.08984375"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="6.7265625"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.0"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="21.08984375"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.08984375"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.453125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.7265625"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="28.81640625"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="7.6328125"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="9.6328125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="7.453125"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="17.26953125"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="18.54296875"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="14.90625"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="30.1796875"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="8.26953125"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="11.90625"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="18.36328125"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.81640625"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="18.26953125"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="11.1796875"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="11.6328125"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="11.81640625"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="19.26953125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
@@ -1609,7 +1613,7 @@
       <c r="J2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" t="s" s="0">
         <v>71</v>
       </c>
       <c r="L2" s="1">
@@ -1618,10 +1622,10 @@
       <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" t="s" s="0">
         <v>70</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1671,7 +1675,7 @@
       <c r="AF2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AG2" t="s" s="0">
         <v>74</v>
       </c>
       <c r="AH2" s="7">
